--- a/biology/Botanique/Panneau_de_particules_liées_au_ciment/Panneau_de_particules_liées_au_ciment.xlsx
+++ b/biology/Botanique/Panneau_de_particules_liées_au_ciment/Panneau_de_particules_liées_au_ciment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Panneau_de_particules_li%C3%A9es_au_ciment</t>
+          <t>Panneau_de_particules_liées_au_ciment</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un panneau de particules liées au ciment est un panneau de particules dont le liant est le ciment, un liant inorganique[1].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un panneau de particules liées au ciment est un panneau de particules dont le liant est le ciment, un liant inorganique.  
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Panneau_de_particules_li%C3%A9es_au_ciment</t>
+          <t>Panneau_de_particules_liées_au_ciment</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'utilisation du ciment comme liant procure aux panneaux de particules liées au ciment les propriétés suivantes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'utilisation du ciment comme liant procure aux panneaux de particules liées au ciment les propriétés suivantes :
 grande dureté ;
 masse volumique élevée : aux alentours de 1,25 kg/dm3 ;
 grande résistance aux insectes, aux feux (matériaux inflammables) et aux intempéries ;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Panneau_de_particules_li%C3%A9es_au_ciment</t>
+          <t>Panneau_de_particules_liées_au_ciment</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les panneaux de particules liées au ciment sont utilisés surtout comme isolant acoustique. 
 </t>
